--- a/Time Series model for predicting Car sales/Final dataset.xlsx
+++ b/Time Series model for predicting Car sales/Final dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anich\OneDrive\Documents\GitHub\Data-Science-Mini-Project\Time Series model for predicting Car sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EFE494-C366-451E-9818-3A45F96BDFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CD6431-A9C0-4016-931B-1FC5E7492D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Diesel Price</t>
   </si>
   <si>
-    <t>Google Search Metric</t>
+    <t>Google Search Index</t>
   </si>
 </sst>
 </file>
@@ -372,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,6 +433,9 @@
       <c r="F2">
         <v>1.4027000000000001</v>
       </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
       <c r="H2">
         <v>268565</v>
       </c>
@@ -459,6 +462,9 @@
       <c r="F3">
         <v>1.411</v>
       </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
       <c r="H3">
         <v>268412</v>
       </c>
@@ -485,6 +491,9 @@
       <c r="F4">
         <v>1.4077</v>
       </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
       <c r="H4">
         <v>268254</v>
       </c>
@@ -511,6 +520,9 @@
       <c r="F5">
         <v>1.4245000000000001</v>
       </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
       <c r="H5">
         <v>268096</v>
       </c>
@@ -537,6 +549,9 @@
       <c r="F6">
         <v>1.4392</v>
       </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
       <c r="H6">
         <v>265633</v>
       </c>
@@ -563,6 +578,9 @@
       <c r="F7">
         <v>1.4656</v>
       </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
       <c r="H7">
         <v>263000</v>
       </c>
@@ -589,6 +607,9 @@
       <c r="F8">
         <v>1.4704999999999999</v>
       </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
       <c r="H8">
         <v>260453</v>
       </c>
@@ -615,6 +636,9 @@
       <c r="F9">
         <v>1.4049</v>
       </c>
+      <c r="G9">
+        <v>28</v>
+      </c>
       <c r="H9">
         <v>259740</v>
       </c>
@@ -641,6 +665,9 @@
       <c r="F10">
         <v>1.3720000000000001</v>
       </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
       <c r="H10">
         <v>259050</v>
       </c>
@@ -667,6 +694,9 @@
       <c r="F11">
         <v>1.3825000000000001</v>
       </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
       <c r="H11">
         <v>258337</v>
       </c>
@@ -693,6 +723,9 @@
       <c r="F12">
         <v>1.4217</v>
       </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
       <c r="H12">
         <v>265852</v>
       </c>
@@ -719,6 +752,9 @@
       <c r="F13">
         <v>1.4436</v>
       </c>
+      <c r="G13">
+        <v>23</v>
+      </c>
       <c r="H13">
         <v>273125</v>
       </c>
@@ -745,6 +781,9 @@
       <c r="F14">
         <v>1.43</v>
       </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
       <c r="H14">
         <v>280641</v>
       </c>
@@ -771,6 +810,9 @@
       <c r="F15">
         <v>1.4113</v>
       </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
       <c r="H15">
         <v>280517</v>
       </c>
@@ -797,6 +839,9 @@
       <c r="F16">
         <v>1.3980999999999999</v>
       </c>
+      <c r="G16">
+        <v>21</v>
+      </c>
       <c r="H16">
         <v>280389</v>
       </c>
@@ -823,6 +868,9 @@
       <c r="F17">
         <v>1.4077</v>
       </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
       <c r="H17">
         <v>280262</v>
       </c>
@@ -849,6 +897,9 @@
       <c r="F18">
         <v>1.4555</v>
       </c>
+      <c r="G18">
+        <v>19</v>
+      </c>
       <c r="H18">
         <v>279424</v>
       </c>
@@ -875,6 +926,9 @@
       <c r="F19">
         <v>1.4433</v>
       </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
       <c r="H19">
         <v>278497</v>
       </c>
@@ -901,6 +955,9 @@
       <c r="F20">
         <v>1.3958999999999999</v>
       </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
       <c r="H20">
         <v>277600</v>
       </c>
@@ -927,6 +984,9 @@
       <c r="F21">
         <v>1.3882000000000001</v>
       </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
       <c r="H21">
         <v>276086</v>
       </c>
@@ -953,6 +1013,9 @@
       <c r="F22">
         <v>1.3964000000000001</v>
       </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
       <c r="H22">
         <v>274620</v>
       </c>
@@ -979,6 +1042,9 @@
       <c r="F23">
         <v>1.4144000000000001</v>
       </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
       <c r="H23">
         <v>273107</v>
       </c>
@@ -1005,6 +1071,9 @@
       <c r="F24">
         <v>1.4177999999999999</v>
       </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
       <c r="H24">
         <v>280206</v>
       </c>
@@ -1031,6 +1100,9 @@
       <c r="F25">
         <v>1.4018999999999999</v>
       </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
       <c r="H25">
         <v>287076</v>
       </c>
@@ -1057,6 +1129,9 @@
       <c r="F26">
         <v>1.3888</v>
       </c>
+      <c r="G26">
+        <v>19</v>
+      </c>
       <c r="H26">
         <v>294175</v>
       </c>
@@ -1083,6 +1158,9 @@
       <c r="F27">
         <v>1.3772</v>
       </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
       <c r="H27">
         <v>293663</v>
       </c>
@@ -1109,6 +1187,9 @@
       <c r="F28">
         <v>1.3797999999999999</v>
       </c>
+      <c r="G28">
+        <v>19</v>
+      </c>
       <c r="H28">
         <v>293134</v>
       </c>
@@ -1135,6 +1216,9 @@
       <c r="F29">
         <v>1.3694</v>
       </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
       <c r="H29">
         <v>292606</v>
       </c>
@@ -1161,6 +1245,9 @@
       <c r="F30">
         <v>1.3694999999999999</v>
       </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
       <c r="H30">
         <v>291503</v>
       </c>
@@ -1187,6 +1274,9 @@
       <c r="F31">
         <v>1.3589</v>
       </c>
+      <c r="G31">
+        <v>19</v>
+      </c>
       <c r="H31">
         <v>290283</v>
       </c>
@@ -1213,6 +1303,9 @@
       <c r="F32">
         <v>1.3593</v>
       </c>
+      <c r="G32">
+        <v>19</v>
+      </c>
       <c r="H32">
         <v>289103</v>
       </c>
@@ -1239,6 +1332,9 @@
       <c r="F33">
         <v>1.3635999999999999</v>
       </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
       <c r="H33">
         <v>287711</v>
       </c>
@@ -1265,6 +1361,9 @@
       <c r="F34">
         <v>1.3604000000000001</v>
       </c>
+      <c r="G34">
+        <v>22</v>
+      </c>
       <c r="H34">
         <v>286364</v>
       </c>
@@ -1291,6 +1390,9 @@
       <c r="F35">
         <v>1.355</v>
       </c>
+      <c r="G35">
+        <v>19</v>
+      </c>
       <c r="H35">
         <v>284973</v>
       </c>
@@ -1317,6 +1419,9 @@
       <c r="F36">
         <v>1.3315999999999999</v>
       </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
       <c r="H36">
         <v>292206</v>
       </c>
@@ -1343,6 +1448,9 @@
       <c r="F37">
         <v>1.3323</v>
       </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
       <c r="H37">
         <v>299205</v>
       </c>
@@ -1369,6 +1477,9 @@
       <c r="F38">
         <v>1.2971999999999999</v>
       </c>
+      <c r="G38">
+        <v>19</v>
+      </c>
       <c r="H38">
         <v>306439</v>
       </c>
@@ -1395,6 +1506,9 @@
       <c r="F39">
         <v>1.2717000000000001</v>
       </c>
+      <c r="G39">
+        <v>23</v>
+      </c>
       <c r="H39">
         <v>306440</v>
       </c>
@@ -1421,6 +1535,9 @@
       <c r="F40">
         <v>1.2036</v>
       </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
       <c r="H40">
         <v>306442</v>
       </c>
@@ -1447,6 +1564,9 @@
       <c r="F41">
         <v>1.1375999999999999</v>
       </c>
+      <c r="G41">
+        <v>16</v>
+      </c>
       <c r="H41">
         <v>306444</v>
       </c>
@@ -1473,6 +1593,9 @@
       <c r="F42">
         <v>1.1574</v>
       </c>
+      <c r="G42">
+        <v>19</v>
+      </c>
       <c r="H42">
         <v>305540</v>
       </c>
@@ -1499,6 +1622,9 @@
       <c r="F43">
         <v>1.1897</v>
       </c>
+      <c r="G43">
+        <v>22</v>
+      </c>
       <c r="H43">
         <v>304539</v>
       </c>
@@ -1525,6 +1651,9 @@
       <c r="F44">
         <v>1.1958</v>
       </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
       <c r="H44">
         <v>303571</v>
       </c>
@@ -1551,6 +1680,9 @@
       <c r="F45">
         <v>1.2132000000000001</v>
       </c>
+      <c r="G45">
+        <v>17</v>
+      </c>
       <c r="H45">
         <v>302436</v>
       </c>
@@ -1577,6 +1709,9 @@
       <c r="F46">
         <v>1.2099</v>
       </c>
+      <c r="G46">
+        <v>22</v>
+      </c>
       <c r="H46">
         <v>301338</v>
       </c>
@@ -1603,6 +1738,9 @@
       <c r="F47">
         <v>1.1695</v>
       </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
       <c r="H47">
         <v>300204</v>
       </c>
@@ -1629,6 +1767,9 @@
       <c r="F48">
         <v>1.0992</v>
       </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
       <c r="H48">
         <v>305777</v>
       </c>
@@ -1655,6 +1796,9 @@
       <c r="F49">
         <v>1.1045</v>
       </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
       <c r="H49">
         <v>311172</v>
       </c>
@@ -1681,6 +1825,9 @@
       <c r="F50">
         <v>1.1061000000000001</v>
       </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
       <c r="H50">
         <v>316746</v>
       </c>
@@ -1707,6 +1854,9 @@
       <c r="F51">
         <v>1.1001000000000001</v>
       </c>
+      <c r="G51">
+        <v>18</v>
+      </c>
       <c r="H51">
         <v>315850</v>
       </c>
@@ -1733,6 +1883,9 @@
       <c r="F52">
         <v>1.0643</v>
       </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
       <c r="H52">
         <v>314924</v>
       </c>
@@ -1759,6 +1912,9 @@
       <c r="F53">
         <v>1.0154000000000001</v>
       </c>
+      <c r="G53">
+        <v>20</v>
+      </c>
       <c r="H53">
         <v>313999</v>
       </c>
@@ -1785,6 +1941,9 @@
       <c r="F54">
         <v>1.0138</v>
       </c>
+      <c r="G54">
+        <v>19</v>
+      </c>
       <c r="H54">
         <v>313452</v>
       </c>
@@ -1811,6 +1970,9 @@
       <c r="F55">
         <v>1.044</v>
       </c>
+      <c r="G55">
+        <v>24</v>
+      </c>
       <c r="H55">
         <v>312867</v>
       </c>
@@ -1837,6 +1999,9 @@
       <c r="F56">
         <v>1.0767</v>
       </c>
+      <c r="G56">
+        <v>29</v>
+      </c>
       <c r="H56">
         <v>312302</v>
       </c>
@@ -1863,6 +2028,9 @@
       <c r="F57">
         <v>1.107</v>
       </c>
+      <c r="G57">
+        <v>25</v>
+      </c>
       <c r="H57">
         <v>312438</v>
       </c>
@@ -1889,6 +2057,9 @@
       <c r="F58">
         <v>1.1255999999999999</v>
       </c>
+      <c r="G58">
+        <v>22</v>
+      </c>
       <c r="H58">
         <v>312569</v>
       </c>
@@ -1915,6 +2086,9 @@
       <c r="F59">
         <v>1.1289</v>
       </c>
+      <c r="G59">
+        <v>24</v>
+      </c>
       <c r="H59">
         <v>312706</v>
       </c>
@@ -1941,6 +2115,9 @@
       <c r="F60">
         <v>1.1254999999999999</v>
       </c>
+      <c r="G60">
+        <v>24</v>
+      </c>
       <c r="H60">
         <v>315244</v>
       </c>
@@ -1967,6 +2144,9 @@
       <c r="F61">
         <v>1.1337999999999999</v>
       </c>
+      <c r="G61">
+        <v>26</v>
+      </c>
       <c r="H61">
         <v>317702</v>
       </c>
@@ -1993,6 +2173,9 @@
       <c r="F62">
         <v>1.1841999999999999</v>
       </c>
+      <c r="G62">
+        <v>20</v>
+      </c>
       <c r="H62">
         <v>320241</v>
       </c>
@@ -2019,6 +2202,9 @@
       <c r="F63">
         <v>1.1657</v>
       </c>
+      <c r="G63">
+        <v>27</v>
+      </c>
       <c r="H63">
         <v>320660</v>
       </c>
@@ -2045,6 +2231,9 @@
       <c r="F64">
         <v>1.1902999999999999</v>
       </c>
+      <c r="G64">
+        <v>22</v>
+      </c>
       <c r="H64">
         <v>321093</v>
       </c>
@@ -2071,6 +2260,9 @@
       <c r="F65">
         <v>1.2319</v>
       </c>
+      <c r="G65">
+        <v>26</v>
+      </c>
       <c r="H65">
         <v>321527</v>
       </c>
@@ -2097,6 +2289,9 @@
       <c r="F66">
         <v>1.2305999999999999</v>
       </c>
+      <c r="G66">
+        <v>35</v>
+      </c>
       <c r="H66">
         <v>321481</v>
       </c>
@@ -2123,6 +2318,9 @@
       <c r="F67">
         <v>1.2108000000000001</v>
       </c>
+      <c r="G67">
+        <v>35</v>
+      </c>
       <c r="H67">
         <v>321430</v>
       </c>
@@ -2149,6 +2347,9 @@
       <c r="F68">
         <v>1.2077</v>
       </c>
+      <c r="G68">
+        <v>32</v>
+      </c>
       <c r="H68">
         <v>321381</v>
       </c>
@@ -2175,6 +2376,9 @@
       <c r="F69">
         <v>1.1788000000000001</v>
       </c>
+      <c r="G69">
+        <v>34</v>
+      </c>
       <c r="H69">
         <v>321801</v>
       </c>
@@ -2201,6 +2405,9 @@
       <c r="F70">
         <v>1.1626000000000001</v>
       </c>
+      <c r="G70">
+        <v>27</v>
+      </c>
       <c r="H70">
         <v>322209</v>
       </c>
@@ -2227,6 +2434,9 @@
       <c r="F71">
         <v>1.1598999999999999</v>
       </c>
+      <c r="G71">
+        <v>51</v>
+      </c>
       <c r="H71">
         <v>322630</v>
       </c>
@@ -2253,6 +2463,9 @@
       <c r="F72">
         <v>1.1823999999999999</v>
       </c>
+      <c r="G72">
+        <v>48</v>
+      </c>
       <c r="H72">
         <v>323735</v>
       </c>
@@ -2279,6 +2492,9 @@
       <c r="F73">
         <v>1.2037</v>
       </c>
+      <c r="G73">
+        <v>47</v>
+      </c>
       <c r="H73">
         <v>324804</v>
       </c>
@@ -2305,6 +2521,9 @@
       <c r="F74">
         <v>1.2062999999999999</v>
       </c>
+      <c r="G74">
+        <v>46</v>
+      </c>
       <c r="H74">
         <v>325910</v>
       </c>
@@ -2331,6 +2550,9 @@
       <c r="F75">
         <v>1.2379</v>
       </c>
+      <c r="G75">
+        <v>44</v>
+      </c>
       <c r="H75">
         <v>325643</v>
       </c>
@@ -2357,6 +2579,9 @@
       <c r="F76">
         <v>1.2343</v>
       </c>
+      <c r="G76">
+        <v>40</v>
+      </c>
       <c r="H76">
         <v>325368</v>
       </c>
@@ -2383,6 +2608,9 @@
       <c r="F77">
         <v>1.2532000000000001</v>
       </c>
+      <c r="G77">
+        <v>51</v>
+      </c>
       <c r="H77">
         <v>325093</v>
       </c>
@@ -2409,6 +2637,9 @@
       <c r="F78">
         <v>1.2309000000000001</v>
       </c>
+      <c r="G78">
+        <v>44</v>
+      </c>
       <c r="H78">
         <v>324109</v>
       </c>
@@ -2435,6 +2666,9 @@
       <c r="F79">
         <v>1.2290000000000001</v>
       </c>
+      <c r="G79">
+        <v>39</v>
+      </c>
       <c r="H79">
         <v>323020</v>
       </c>
@@ -2461,6 +2695,9 @@
       <c r="F80">
         <v>1.2601</v>
       </c>
+      <c r="G80">
+        <v>45</v>
+      </c>
       <c r="H80">
         <v>321966</v>
       </c>
@@ -2487,6 +2724,9 @@
       <c r="F81">
         <v>1.3166</v>
       </c>
+      <c r="G81">
+        <v>43</v>
+      </c>
       <c r="H81">
         <v>321999</v>
       </c>
@@ -2513,6 +2753,9 @@
       <c r="F82">
         <v>1.3127</v>
       </c>
+      <c r="G82">
+        <v>40</v>
+      </c>
       <c r="H82">
         <v>322032</v>
       </c>
@@ -2539,6 +2782,9 @@
       <c r="F83">
         <v>1.3193999999999999</v>
       </c>
+      <c r="G83">
+        <v>43</v>
+      </c>
       <c r="H83">
         <v>322066</v>
       </c>
@@ -2565,6 +2811,9 @@
       <c r="F84">
         <v>1.3320000000000001</v>
       </c>
+      <c r="G84">
+        <v>45</v>
+      </c>
       <c r="H84">
         <v>326532</v>
       </c>
@@ -2591,6 +2840,9 @@
       <c r="F85">
         <v>1.3476999999999999</v>
       </c>
+      <c r="G85">
+        <v>41</v>
+      </c>
       <c r="H85">
         <v>330855</v>
       </c>
@@ -2617,6 +2869,9 @@
       <c r="F86">
         <v>1.3698999999999999</v>
       </c>
+      <c r="G86">
+        <v>48</v>
+      </c>
       <c r="H86">
         <v>335322</v>
       </c>
@@ -2643,6 +2898,9 @@
       <c r="F87">
         <v>1.3543000000000001</v>
       </c>
+      <c r="G87">
+        <v>51</v>
+      </c>
       <c r="H87">
         <v>335128</v>
       </c>
@@ -2669,6 +2927,9 @@
       <c r="F88">
         <v>1.3026</v>
       </c>
+      <c r="G88">
+        <v>42</v>
+      </c>
       <c r="H88">
         <v>334928</v>
       </c>
@@ -2695,6 +2956,9 @@
       <c r="F89">
         <v>1.2909999999999999</v>
       </c>
+      <c r="G89">
+        <v>49</v>
+      </c>
       <c r="H89">
         <v>334728</v>
       </c>
@@ -2721,6 +2985,9 @@
       <c r="F90">
         <v>1.2966</v>
       </c>
+      <c r="G90">
+        <v>56</v>
+      </c>
       <c r="H90">
         <v>333825</v>
       </c>
@@ -2747,6 +3014,9 @@
       <c r="F91">
         <v>1.3115000000000001</v>
       </c>
+      <c r="G91">
+        <v>59</v>
+      </c>
       <c r="H91">
         <v>332825</v>
       </c>
@@ -2773,6 +3043,9 @@
       <c r="F92">
         <v>1.3460000000000001</v>
       </c>
+      <c r="G92">
+        <v>54</v>
+      </c>
       <c r="H92">
         <v>331858</v>
       </c>
@@ -2799,6 +3072,9 @@
       <c r="F93">
         <v>1.3645</v>
       </c>
+      <c r="G93">
+        <v>64</v>
+      </c>
       <c r="H93">
         <v>331104</v>
       </c>
@@ -2825,6 +3101,9 @@
       <c r="F94">
         <v>1.3181</v>
       </c>
+      <c r="G94">
+        <v>57</v>
+      </c>
       <c r="H94">
         <v>330374</v>
       </c>
@@ -2851,6 +3130,9 @@
       <c r="F95">
         <v>1.3260000000000001</v>
       </c>
+      <c r="G95">
+        <v>57</v>
+      </c>
       <c r="H95">
         <v>329621</v>
       </c>
@@ -2877,6 +3159,9 @@
       <c r="F96">
         <v>1.3250999999999999</v>
       </c>
+      <c r="G96">
+        <v>59</v>
+      </c>
       <c r="H96">
         <v>329375</v>
       </c>
@@ -2903,6 +3188,9 @@
       <c r="F97">
         <v>1.3183</v>
       </c>
+      <c r="G97">
+        <v>55</v>
+      </c>
       <c r="H97">
         <v>329136</v>
       </c>
@@ -2929,6 +3217,9 @@
       <c r="F98">
         <v>1.306</v>
       </c>
+      <c r="G98">
+        <v>84</v>
+      </c>
       <c r="H98">
         <v>328891</v>
       </c>
@@ -2955,6 +3246,9 @@
       <c r="F99">
         <v>1.3008</v>
       </c>
+      <c r="G99">
+        <v>76</v>
+      </c>
       <c r="H99">
         <v>331544</v>
       </c>
@@ -2981,6 +3275,9 @@
       <c r="F100">
         <v>1.3053999999999999</v>
       </c>
+      <c r="G100">
+        <v>75</v>
+      </c>
       <c r="H100">
         <v>334286</v>
       </c>
@@ -3007,6 +3304,9 @@
       <c r="F101">
         <v>1.3288</v>
       </c>
+      <c r="G101">
+        <v>85</v>
+      </c>
       <c r="H101">
         <v>337029</v>
       </c>
@@ -3033,6 +3333,9 @@
       <c r="F102">
         <v>1.2766999999999999</v>
       </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
       <c r="H102">
         <v>334862</v>
       </c>
@@ -3059,6 +3362,9 @@
       <c r="F103">
         <v>1.1859999999999999</v>
       </c>
+      <c r="G103">
+        <v>68</v>
+      </c>
       <c r="H103">
         <v>332546</v>
       </c>
@@ -3085,6 +3391,9 @@
       <c r="F104">
         <v>1.1521999999999999</v>
       </c>
+      <c r="G104">
+        <v>40</v>
+      </c>
       <c r="H104">
         <v>330305</v>
       </c>
@@ -3111,6 +3420,9 @@
       <c r="F105">
         <v>1.117</v>
       </c>
+      <c r="G105">
+        <v>51</v>
+      </c>
       <c r="H105">
         <v>330381</v>
       </c>
@@ -3137,6 +3449,9 @@
       <c r="F106">
         <v>1.141</v>
       </c>
+      <c r="G106">
+        <v>66</v>
+      </c>
       <c r="H106">
         <v>330454</v>
       </c>
@@ -3163,6 +3478,9 @@
       <c r="F107">
         <v>1.1776</v>
       </c>
+      <c r="G107">
+        <v>72</v>
+      </c>
       <c r="H107">
         <v>330531</v>
       </c>
@@ -3189,6 +3507,9 @@
       <c r="F108">
         <v>1.1818</v>
       </c>
+      <c r="G108">
+        <v>65</v>
+      </c>
       <c r="H108">
         <v>329978</v>
       </c>
@@ -3215,6 +3536,9 @@
       <c r="F109">
         <v>1.1814</v>
       </c>
+      <c r="G109">
+        <v>79</v>
+      </c>
       <c r="H109">
         <v>329443</v>
       </c>
@@ -3241,6 +3565,9 @@
       <c r="F110">
         <v>1.1808000000000001</v>
       </c>
+      <c r="G110">
+        <v>72</v>
+      </c>
       <c r="H110">
         <v>328891</v>
       </c>
@@ -3267,6 +3594,9 @@
       <c r="F111">
         <v>1.1740999999999999</v>
       </c>
+      <c r="G111">
+        <v>85</v>
+      </c>
       <c r="H111">
         <v>328678</v>
       </c>
@@ -3293,6 +3623,9 @@
       <c r="F112">
         <v>1.1964999999999999</v>
       </c>
+      <c r="G112">
+        <v>68</v>
+      </c>
       <c r="H112">
         <v>328458</v>
       </c>
@@ -3319,6 +3652,9 @@
       <c r="F113">
         <v>1.2270000000000001</v>
       </c>
+      <c r="G113">
+        <v>84</v>
+      </c>
       <c r="H113">
         <v>328239</v>
       </c>
@@ -3345,6 +3681,9 @@
       <c r="F114">
         <v>1.2571000000000001</v>
       </c>
+      <c r="G114">
+        <v>90</v>
+      </c>
       <c r="H114">
         <v>328484</v>
       </c>
@@ -3371,6 +3710,9 @@
       <c r="F115">
         <v>1.2931999999999999</v>
       </c>
+      <c r="G115">
+        <v>81</v>
+      </c>
       <c r="H115">
         <v>328756</v>
       </c>
@@ -3397,6 +3739,9 @@
       <c r="F116">
         <v>1.2977000000000001</v>
       </c>
+      <c r="G116">
+        <v>79</v>
+      </c>
       <c r="H116">
         <v>329019</v>
       </c>
@@ -3417,6 +3762,9 @@
       <c r="F117">
         <v>1.3182</v>
       </c>
+      <c r="G117">
+        <v>74</v>
+      </c>
       <c r="H117">
         <v>328403</v>
       </c>
@@ -3437,6 +3785,9 @@
       <c r="F118">
         <v>1.3427</v>
       </c>
+      <c r="G118">
+        <v>71</v>
+      </c>
       <c r="H118">
         <v>327807</v>
       </c>
@@ -3456,6 +3807,9 @@
       </c>
       <c r="F119">
         <v>1.3620000000000001</v>
+      </c>
+      <c r="G119">
+        <v>72</v>
       </c>
       <c r="H119">
         <v>327192</v>
